--- a/epigenetics/table_genes.xlsx
+++ b/epigenetics/table_genes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csengepetak/Desktop/Ecological_genomics/epigenetics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BCDA19-E693-6044-BF23-7C8591C2D8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DB114A-018E-E949-8FC9-A81D85227D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B6451A96-A881-A547-8A0E-CD5E15D8C0AB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -121,19 +121,26 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t>3 SNPs, all increased</t>
+  </si>
+  <si>
+    <t>all in gene body</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,20 +149,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFDFDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -163,20 +212,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -185,6 +357,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEEEEEE"/>
+      <color rgb="FFDFDFDF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -493,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC1B900-A3F9-F04D-AC61-25C2A6935E25}">
-  <dimension ref="B8:M18"/>
+  <dimension ref="B7:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -507,201 +685,202 @@
     <col min="5" max="5" width="18.1640625" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="7" spans="2:13" ht="17" thickBot="1"/>
     <row r="8" spans="2:13">
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="34">
-      <c r="I9" s="3" t="s">
+    <row r="9" spans="2:13" ht="30">
+      <c r="I9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="34">
-      <c r="I10" s="3" t="s">
+    <row r="10" spans="2:13" ht="30">
+      <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="51">
-      <c r="I11" s="3" t="s">
+    <row r="11" spans="2:13" ht="30">
+      <c r="I11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="34">
+    <row r="12" spans="2:13" ht="30">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="34">
+    <row r="13" spans="2:13" ht="30">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="51">
-      <c r="I14" s="3" t="s">
+    <row r="14" spans="2:13" ht="30">
+      <c r="I14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="34">
-      <c r="I15" s="3" t="s">
+    <row r="15" spans="2:13" ht="32" customHeight="1">
+      <c r="I15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="34">
-      <c r="I16" s="3" t="s">
+    <row r="16" spans="2:13" ht="30">
+      <c r="I16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="K16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="9:13" ht="34">
-      <c r="I17" s="3" t="s">
+    <row r="17" spans="9:13" ht="30">
+      <c r="I17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="9:13" ht="34">
-      <c r="I18" s="3" t="s">
+    <row r="18" spans="9:13" ht="31" thickBot="1">
+      <c r="I18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
